--- a/biology/Médecine/Intégrase/Intégrase.xlsx
+++ b/biology/Médecine/Intégrase/Intégrase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Int%C3%A9grase</t>
+          <t>Intégrase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'intégrase est une protéine enzymatique produite par de nombreux virus et éléments génétiques mobiles tel que les rétroéléments à ARN (par exemple les rétrovirus ou les rétrotransposons), et qui catalyse l'étape dite d'intégration du cycle réplicatif de ces agents infectieux. Parfois ce sont les organismes eux-mêmes qui possèdent une ou des intégrases, elles ont de nombreux rôles tel que la décaténation[Quoi ?] des chromosomes circulaires bactérien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intégrase est une protéine enzymatique produite par de nombreux virus et éléments génétiques mobiles tel que les rétroéléments à ARN (par exemple les rétrovirus ou les rétrotransposons), et qui catalyse l'étape dite d'intégration du cycle réplicatif de ces agents infectieux. Parfois ce sont les organismes eux-mêmes qui possèdent une ou des intégrases, elles ont de nombreux rôles tel que la décaténation[Quoi ?] des chromosomes circulaires bactérien.
 L'ADN étranger[pas clair] est ainsi "intégré" dans le génôme de l'organisme hôte. Cette enzyme est particulièrement étudiée[réf. nécessaire] car elle constitue une cible thérapeutique de grand intérêt pour le traitement des infections par les rétrovirus humains comme le virus du SIDA (VIH).
 Il existe 3 grandes familles d'intégrases classées selon leurs résidus catalytique principaux[réf. nécessaire]:
--Les intégrases à tyrosine tel que celle du phage lambda[2]
--Les intégrases à sérine[3]
+-Les intégrases à tyrosine tel que celle du phage lambda
+-Les intégrases à sérine
 - Les DDE recombinase[Quoi ?] tel que celle du VIH[réf. nécessaire]
 Certaines intégrases sont spécifiques d'une séquence d'ADN particulière ce qui permet de contrôler le lieu d'intégration. Selon l'orientation des séquences spécifiques il y a inversion si en orientation opposée ou bien excision de l'élément intégré si en orientation directe[pas clair]. 
 Le cycle réplicatif des rétrovirus, pour prendre cet exemple, est une suite d'étapes critiques dont chacune contribue à la réussite de l'infection. Infectant d'abord une cellule cible, l'ARN génomique est rétrotranscrit en ADN par la transcriptase inverse, puis intégré dans l'ADN cellulaire de sorte qu'il existe une continuité physique entre l'ADN du virus, alors appelé proviral, et celui de la cellule. Le génome du virus peut ensuite s'exprimer et détourner les ressources cellulaires, pilotant la production de molécules virales qui s'assemblent pour former de nouveaux virus infectieux. 
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Int%C3%A9grase</t>
+          <t>Intégrase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,9 +532,11 @@
           <t>Utilisation thérapeutique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le raltégravir est un inhibiteur de l'intégrase du VIH. Il a été testé[Quand ?] avec un certain succès[évasif] chez des patients[Combien ?] résistants aux antirétroviraux classiques[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le raltégravir est un inhibiteur de l'intégrase du VIH. Il a été testé[Quand ?] avec un certain succès[évasif] chez des patients[Combien ?] résistants aux antirétroviraux classiques.
 </t>
         </is>
       </c>
